--- a/PCB/Project Outputs for Ortho4Exent/BOM/Production BOM-Ortho4Exent(PRODUCTION).xlsx
+++ b/PCB/Project Outputs for Ortho4Exent/BOM/Production BOM-Ortho4Exent(PRODUCTION).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TamasSzabo\Documents\GitHub\Ortho4Exent\PCB\Project Outputs for Ortho4Exent\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE30F111-E29E-4C41-99F4-459499B36DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12FC8A79-05A7-493F-9176-1A20C18DAB37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4716" yWindow="2640" windowWidth="17280" windowHeight="8964" xr2:uid="{10B4D2A9-23B9-4870-83C2-516310B9E456}"/>
+    <workbookView xWindow="4716" yWindow="2640" windowWidth="17280" windowHeight="8964" xr2:uid="{D8C5DE2E-AC45-4A99-8FBF-5C01A5DB9425}"/>
   </bookViews>
   <sheets>
     <sheet name="Production BOM-Ortho4Exent(PROD" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="113">
   <si>
     <t>Line #</t>
   </si>
@@ -96,6 +96,9 @@
     <t>Supplier Subtotal 2</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>0402 1µF</t>
   </si>
   <si>
@@ -144,9 +147,6 @@
     <t>732-7620-1-ND</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>0402 10pF</t>
   </si>
   <si>
@@ -204,6 +204,18 @@
     <t>1N4148WTDKR-ND</t>
   </si>
   <si>
+    <t>82400102</t>
+  </si>
+  <si>
+    <t>D72</t>
+  </si>
+  <si>
+    <t>732-4473-1-ND</t>
+  </si>
+  <si>
+    <t>732-4473-6-ND</t>
+  </si>
+  <si>
     <t>513870530</t>
   </si>
   <si>
@@ -327,37 +339,37 @@
     <t>ATMEGA32U4-MU-ND</t>
   </si>
   <si>
+    <t>Microchip / Atmel</t>
+  </si>
+  <si>
     <t>ATMEGA32U4-MU</t>
   </si>
   <si>
+    <t>Not Recommended for New Design</t>
+  </si>
+  <si>
+    <t>16MHz 3225</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>CRYSTAL 16.0000MHZ 18PF SMD</t>
+  </si>
+  <si>
+    <t>WE/IQD</t>
+  </si>
+  <si>
+    <t>830055951</t>
+  </si>
+  <si>
+    <t>IQD</t>
+  </si>
+  <si>
+    <t>LFXTAL055951REEL</t>
+  </si>
+  <si>
     <t>Unknown</t>
-  </si>
-  <si>
-    <t>Farnell</t>
-  </si>
-  <si>
-    <t>2425127</t>
-  </si>
-  <si>
-    <t>16MHz 3225</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>CRYSTAL 16.0000MHZ 18PF SMD</t>
-  </si>
-  <si>
-    <t>WE/IQD</t>
-  </si>
-  <si>
-    <t>830055951</t>
-  </si>
-  <si>
-    <t>IQD</t>
-  </si>
-  <si>
-    <t>LFXTAL055951REEL</t>
   </si>
   <si>
     <t>1923-1308-1-ND</t>
@@ -426,10 +438,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -745,11 +757,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E12909B-D3C0-45D3-AE05-FE79E4B271DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196EAC47-E861-412E-99D6-0247D2ABCAF1}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -829,696 +841,753 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3">
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="I2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="3">
+      <c r="K2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="4">
         <v>0.23200000000000001</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="4">
         <v>4.6399999999999997</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="4">
         <v>4428</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="3">
+      <c r="P2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="4">
         <v>4428</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="4">
         <v>4.6399999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="3">
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="F3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="I3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="3">
+      <c r="K3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="4">
         <v>0.16700000000000001</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="4">
         <v>3.34</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="4">
         <v>2599</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="3">
+      <c r="P3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="4">
         <v>2599</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="4">
         <v>3.34</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="K4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="4">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="4">
         <v>0.72</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="4">
         <v>28941</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" s="4" t="s">
+      <c r="P4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="4">
         <v>28941</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="4">
         <v>0.72</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>25</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="H5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="K5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="4">
         <v>1.1520000000000001E-2</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="4">
         <v>5.76</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="4">
         <v>10764</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="4" t="s">
+      <c r="P5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="4">
         <v>10764</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="4">
         <v>5.76</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>70</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="N6" s="4">
+        <v>50.4</v>
+      </c>
+      <c r="O6" s="4">
+        <v>344807</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R6" s="4">
+        <v>344807</v>
+      </c>
+      <c r="S6" s="4">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="I7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="3">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="N6" s="3">
-        <v>50.4</v>
-      </c>
-      <c r="O6" s="3">
-        <v>344914</v>
-      </c>
-      <c r="P6" s="4" t="s">
+      <c r="K7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="N7" s="4">
+        <v>15.46</v>
+      </c>
+      <c r="O7" s="4">
+        <v>1857</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R7" s="4">
+        <v>1857</v>
+      </c>
+      <c r="S7" s="4">
+        <v>15.46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="R6" s="3">
-        <v>344914</v>
-      </c>
-      <c r="S6" s="3">
-        <v>50.4</v>
+      <c r="K8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="N8" s="4">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="O8" s="4">
+        <v>2611</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R8" s="4">
+        <v>2611</v>
+      </c>
+      <c r="S8" s="4">
+        <v>16.079999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="N7" s="3">
-        <v>16.079999999999998</v>
-      </c>
-      <c r="O7" s="3">
-        <v>2611</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="R7" s="3">
-        <v>2611</v>
-      </c>
-      <c r="S7" s="3">
-        <v>16.079999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="3">
+    <row r="9" spans="1:19" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="4">
         <v>18</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="E9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="H9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="4">
         <v>7.7299999999999994E-2</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N9" s="4">
         <v>27.83</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O9" s="4">
         <v>36405</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-    </row>
-    <row r="9" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="M9" s="3">
-        <v>3.1E-2</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1.24</v>
-      </c>
-      <c r="O9" s="3">
-        <v>37993</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="R9" s="3">
-        <v>37993</v>
-      </c>
-      <c r="S9" s="3">
-        <v>1.24</v>
-      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="3">
-        <v>2</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="I10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="M10" s="4">
+        <v>3.1E-2</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1.24</v>
+      </c>
+      <c r="O10" s="4">
+        <v>37993</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="M10" s="3">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1.32</v>
-      </c>
-      <c r="O10" s="3">
-        <v>618223</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="R10" s="3">
-        <v>618223</v>
-      </c>
-      <c r="S10" s="3">
-        <v>1.32</v>
+      <c r="R10" s="4">
+        <v>37993</v>
+      </c>
+      <c r="S10" s="4">
+        <v>1.24</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="F11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="3">
+      <c r="H11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" s="4">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1.32</v>
+      </c>
+      <c r="O11" s="4">
+        <v>618223</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R11" s="4">
+        <v>618223</v>
+      </c>
+      <c r="S11" s="4">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="4" t="s">
+      <c r="E12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="M11" s="3">
+      <c r="H12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="M12" s="4">
         <v>0.56000000000000005</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N12" s="4">
         <v>11.2</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O12" s="4">
         <v>17053</v>
       </c>
-      <c r="P11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="R11" s="3">
+      <c r="P12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="R12" s="4">
         <v>17053</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S12" s="4">
         <v>11.2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="3">
+    <row r="13" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="F13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M13" s="4">
         <v>3.98</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N13" s="4">
         <v>79.599999999999994</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O13" s="4">
         <v>56</v>
       </c>
-      <c r="P12" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q12" s="4" t="s">
+      <c r="P13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="R12" s="3">
-        <v>946</v>
-      </c>
-      <c r="S12" s="3">
-        <v>83.28</v>
+      <c r="R13" s="4">
+        <v>56</v>
+      </c>
+      <c r="S13" s="4">
+        <v>79.599999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="3">
+    <row r="14" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="4">
         <v>1</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="M13" s="3">
+      <c r="H14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="M14" s="4">
         <v>0.58799999999999997</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N14" s="4">
         <v>11.76</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O14" s="4">
         <v>148</v>
       </c>
-      <c r="P13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="R13" s="3">
+      <c r="P14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="R14" s="4">
         <v>148</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S14" s="4">
         <v>11.76</v>
       </c>
     </row>

--- a/PCB/Project Outputs for Ortho4Exent/BOM/Production BOM-Ortho4Exent(PRODUCTION).xlsx
+++ b/PCB/Project Outputs for Ortho4Exent/BOM/Production BOM-Ortho4Exent(PRODUCTION).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TamasSzabo\Documents\GitHub\Ortho4Exent\PCB\Project Outputs for Ortho4Exent\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12FC8A79-05A7-493F-9176-1A20C18DAB37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16C5FFC3-F045-4085-AEA7-784DFB334F65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4716" yWindow="2640" windowWidth="17280" windowHeight="8964" xr2:uid="{D8C5DE2E-AC45-4A99-8FBF-5C01A5DB9425}"/>
+    <workbookView xWindow="23808" yWindow="-3396" windowWidth="23040" windowHeight="12204" xr2:uid="{07F3326B-1269-48BC-ACF8-D3F6FDE36BEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Production BOM-Ortho4Exent(PROD" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="116">
   <si>
     <t>Line #</t>
   </si>
@@ -198,18 +198,21 @@
     <t>ON Semiconductor / Fairchild</t>
   </si>
   <si>
+    <t>1N4148WTDKR-ND</t>
+  </si>
+  <si>
     <t>1N4148WTCT-ND</t>
   </si>
   <si>
-    <t>1N4148WTDKR-ND</t>
-  </si>
-  <si>
     <t>82400102</t>
   </si>
   <si>
     <t>D72</t>
   </si>
   <si>
+    <t>WE-TVS TVS Diode, High Speed Series, SOT23-6L, VDC = 5V</t>
+  </si>
+  <si>
     <t>732-4473-1-ND</t>
   </si>
   <si>
@@ -339,13 +342,22 @@
     <t>ATMEGA32U4-MU-ND</t>
   </si>
   <si>
-    <t>Microchip / Atmel</t>
-  </si>
-  <si>
     <t>ATMEGA32U4-MU</t>
   </si>
   <si>
-    <t>Not Recommended for New Design</t>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Farnell</t>
+  </si>
+  <si>
+    <t>2425127</t>
+  </si>
+  <si>
+    <t>RSComponents</t>
+  </si>
+  <si>
+    <t>1310290</t>
   </si>
   <si>
     <t>16MHz 3225</t>
@@ -367,9 +379,6 @@
   </si>
   <si>
     <t>LFXTAL055951REEL</t>
-  </si>
-  <si>
-    <t>Unknown</t>
   </si>
   <si>
     <t>1923-1308-1-ND</t>
@@ -757,7 +766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196EAC47-E861-412E-99D6-0247D2ABCAF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E698148-853F-4D53-A8B9-A99DB3B0CB3F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -884,7 +893,7 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="O2" s="4">
-        <v>4428</v>
+        <v>4328</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>27</v>
@@ -893,7 +902,7 @@
         <v>29</v>
       </c>
       <c r="R2" s="4">
-        <v>4428</v>
+        <v>4328</v>
       </c>
       <c r="S2" s="4">
         <v>4.6399999999999997</v>
@@ -943,7 +952,7 @@
         <v>3.34</v>
       </c>
       <c r="O3" s="4">
-        <v>2599</v>
+        <v>2593</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>27</v>
@@ -952,7 +961,7 @@
         <v>35</v>
       </c>
       <c r="R3" s="4">
-        <v>2599</v>
+        <v>2593</v>
       </c>
       <c r="S3" s="4">
         <v>3.34</v>
@@ -1002,7 +1011,7 @@
         <v>0.72</v>
       </c>
       <c r="O4" s="4">
-        <v>28941</v>
+        <v>28567</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>27</v>
@@ -1011,7 +1020,7 @@
         <v>41</v>
       </c>
       <c r="R4" s="4">
-        <v>28941</v>
+        <v>28567</v>
       </c>
       <c r="S4" s="4">
         <v>0.72</v>
@@ -1061,7 +1070,7 @@
         <v>5.76</v>
       </c>
       <c r="O5" s="4">
-        <v>10764</v>
+        <v>10564</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>27</v>
@@ -1070,7 +1079,7 @@
         <v>47</v>
       </c>
       <c r="R5" s="4">
-        <v>10764</v>
+        <v>10564</v>
       </c>
       <c r="S5" s="4">
         <v>5.76</v>
@@ -1120,7 +1129,7 @@
         <v>50.4</v>
       </c>
       <c r="O6" s="4">
-        <v>344807</v>
+        <v>305174</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>27</v>
@@ -1129,14 +1138,16 @@
         <v>54</v>
       </c>
       <c r="R6" s="4">
-        <v>344807</v>
+        <v>305174</v>
       </c>
       <c r="S6" s="4">
         <v>50.4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="B7" s="3" t="s">
         <v>55</v>
       </c>
@@ -1146,7 +1157,9 @@
       <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="3" t="s">
@@ -1162,7 +1175,7 @@
         <v>27</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M7" s="4">
         <v>0.77300000000000002</v>
@@ -1171,16 +1184,16 @@
         <v>15.46</v>
       </c>
       <c r="O7" s="4">
-        <v>1857</v>
+        <v>1155</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R7" s="4">
-        <v>1857</v>
+        <v>1155</v>
       </c>
       <c r="S7" s="4">
         <v>15.46</v>
@@ -1191,28 +1204,28 @@
         <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>26</v>
@@ -1221,7 +1234,7 @@
         <v>27</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M8" s="4">
         <v>0.80400000000000005</v>
@@ -1230,16 +1243,16 @@
         <v>16.079999999999998</v>
       </c>
       <c r="O8" s="4">
-        <v>2611</v>
+        <v>2561</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R8" s="4">
-        <v>2611</v>
+        <v>2561</v>
       </c>
       <c r="S8" s="4">
         <v>16.079999999999998</v>
@@ -1250,37 +1263,37 @@
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9" s="4">
         <v>18</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M9" s="4">
         <v>7.7299999999999994E-2</v>
@@ -1301,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>26</v>
@@ -1331,7 +1344,7 @@
         <v>27</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M10" s="4">
         <v>3.1E-2</v>
@@ -1340,16 +1353,16 @@
         <v>1.24</v>
       </c>
       <c r="O10" s="4">
-        <v>37993</v>
+        <v>28260</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R10" s="4">
-        <v>37993</v>
+        <v>28260</v>
       </c>
       <c r="S10" s="4">
         <v>1.24</v>
@@ -1360,28 +1373,28 @@
         <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D11" s="4">
         <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>26</v>
@@ -1390,7 +1403,7 @@
         <v>27</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M11" s="4">
         <v>3.3000000000000002E-2</v>
@@ -1399,16 +1412,16 @@
         <v>1.32</v>
       </c>
       <c r="O11" s="4">
-        <v>618223</v>
+        <v>717639</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R11" s="4">
-        <v>618223</v>
+        <v>717639</v>
       </c>
       <c r="S11" s="4">
         <v>1.32</v>
@@ -1419,37 +1432,37 @@
         <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M12" s="4">
         <v>0.56000000000000005</v>
@@ -1458,16 +1471,16 @@
         <v>11.2</v>
       </c>
       <c r="O12" s="4">
-        <v>17053</v>
+        <v>15851</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R12" s="4">
-        <v>17053</v>
+        <v>15851</v>
       </c>
       <c r="S12" s="4">
         <v>11.2</v>
@@ -1478,25 +1491,25 @@
         <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>101</v>
@@ -1505,31 +1518,31 @@
         <v>102</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="M13" s="4">
-        <v>3.98</v>
+        <v>4.45</v>
       </c>
       <c r="N13" s="4">
-        <v>79.599999999999994</v>
+        <v>89.01</v>
       </c>
       <c r="O13" s="4">
-        <v>56</v>
+        <v>5516</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="R13" s="4">
-        <v>56</v>
+        <v>179</v>
       </c>
       <c r="S13" s="4">
-        <v>79.599999999999994</v>
+        <v>78.239999999999995</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -1537,37 +1550,37 @@
         <v>19</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M14" s="4">
         <v>0.58799999999999997</v>
@@ -1576,16 +1589,16 @@
         <v>11.76</v>
       </c>
       <c r="O14" s="4">
-        <v>148</v>
+        <v>838</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="R14" s="4">
-        <v>148</v>
+        <v>838</v>
       </c>
       <c r="S14" s="4">
         <v>11.76</v>
